--- a/data/unchecked/manual_collect/china/xianggang/xianggangCaseStatistics_20200308.xlsx
+++ b/data/unchecked/manual_collect/china/xianggang/xianggangCaseStatistics_20200308.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonardo\Desktop\新型肺炎\3月9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7BFD884-63AE-43EB-98BE-7B1370B54D18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F338492-9428-4B5C-BC1A-5BDDD9641CB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10794,8 +10794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z7" sqref="Z7"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.87890625" defaultRowHeight="15"/>
@@ -10984,7 +10984,9 @@
       <c r="K2" s="13">
         <v>4</v>
       </c>
-      <c r="L2"/>
+      <c r="L2">
+        <v>1</v>
+      </c>
       <c r="M2">
         <v>114</v>
       </c>
@@ -10993,7 +10995,7 @@
         <v>59</v>
       </c>
       <c r="P2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q2" s="12"/>
       <c r="R2" s="20"/>
@@ -11055,7 +11057,9 @@
       <c r="K3" s="13">
         <v>4</v>
       </c>
-      <c r="L3"/>
+      <c r="L3">
+        <v>1</v>
+      </c>
       <c r="M3">
         <v>114</v>
       </c>
@@ -11064,7 +11068,7 @@
         <v>59</v>
       </c>
       <c r="P3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q3" s="12"/>
       <c r="R3" s="20"/>
